--- a/XLSX/TowerStatusInfoTable.xlsx
+++ b/XLSX/TowerStatusInfoTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271BF56-EB20-49A6-A707-A89FEC11F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F860D459-37D5-4F7C-80F5-DCA3AC29D34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="!Normal" sheetId="1" r:id="rId1"/>
     <sheet name="NormalDesc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,49 +37,152 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UsePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Splash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ObjectRange</t>
+    <t>SplashScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;EAttackType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset&lt;UTexture2D&gt;</t>
+  </si>
+  <si>
+    <t>일반 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NomalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/S_icon_01.S_icon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/S_icon_02.S_icon_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/S_icon_03.S_icon_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/S_icon_04.S_icon_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/S_icon_05.S_icon_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Asset/UI/Sprite/Icon/S_icon_06.S_icon_06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 공격 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 생산 타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupportAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;INDEX 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;키값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,139 +210,31 @@
     <t>;사거리</t>
   </si>
   <si>
+    <t>;요구 배치 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>;오브젝트 공격 범위</t>
   </si>
   <si>
     <t>;스플레쉬</t>
   </si>
   <si>
+    <t>SplashScale</t>
+  </si>
+  <si>
+    <t>;스플레쉬 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>;공격 타입</t>
-  </si>
-  <si>
-    <t>AttackType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;키값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;INDEX 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NomalAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectileAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 공격 타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsePoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsePoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;요구 배치 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 생산 타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SupportAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_01.S_icon_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_02.S_icon_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_03.S_icon_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_04.S_icon_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_05.S_icon_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Asset/UI/Sprite/Icon/S_icon_06.S_icon_06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;EAttackType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset&lt;UTexturte2D&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SplashScale</t>
-  </si>
-  <si>
-    <t>SplashScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;스플레쉬 범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -485,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -627,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,10 +633,10 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:L14"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
@@ -661,107 +656,107 @@
     <col min="16" max="16" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -775,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -808,10 +803,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -825,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>55</v>
@@ -858,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -875,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -908,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -925,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G12" si="0">ROUND(G5*1.1,0)</f>
@@ -959,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>5</v>
       </c>
@@ -976,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1010,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1027,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1061,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1078,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1112,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1129,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1163,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1180,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1214,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1231,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1265,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1284,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>40</v>
@@ -1317,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1336,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <f t="shared" ref="G14" si="3">ROUND(G13*1.1,0)</f>
@@ -1370,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1389,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15" si="4">ROUND(G14*1.1,0)</f>
@@ -1423,10 +1418,10 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1442,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16" si="5">ROUND(G15*1.1,0)</f>
@@ -1476,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1495,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <f>ROUND(G16*1.1,0)</f>
@@ -1529,10 +1524,10 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1548,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18" si="6">ROUND(G17*1.1,0)</f>
@@ -1582,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1601,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="7">ROUND(G18*1.1,0)</f>
@@ -1635,10 +1630,10 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1654,10 +1649,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20" si="8">ROUND(G19*1.1,0)</f>
@@ -1688,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1707,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21" si="9">ROUND(G20*1.1,0)</f>
@@ -1741,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1760,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22" si="10">ROUND(G21*1.1,0)</f>
@@ -1794,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1813,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
         <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -1846,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1865,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
         <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24" si="11">ROUND(G23*1.1,0)</f>
@@ -1899,10 +1894,10 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1918,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
         <v>31</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25" si="12">ROUND(G24*1.1,0)</f>
@@ -1952,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1971,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26" si="13">ROUND(G25*1.1,0)</f>
@@ -2005,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2024,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="14">ROUND(G26*1.1,0)</f>
@@ -2058,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2077,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
         <v>31</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
       </c>
       <c r="G28">
         <f t="shared" ref="G28" si="15">ROUND(G27*1.1,0)</f>
@@ -2111,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2130,10 +2125,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
         <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
       </c>
       <c r="G29">
         <f t="shared" ref="G29" si="16">ROUND(G28*1.1,0)</f>
@@ -2164,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2183,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
         <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
       </c>
       <c r="G30">
         <f t="shared" ref="G30" si="17">ROUND(G29*1.1,0)</f>
@@ -2217,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2236,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
         <v>31</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31" si="18">ROUND(G30*1.1,0)</f>
@@ -2270,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2289,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
         <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
       </c>
       <c r="G32">
         <f t="shared" ref="G32:G38" si="19">ROUND(G31*1.1,0)</f>
@@ -2323,10 +2318,10 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2342,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2375,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2394,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <f t="shared" si="19"/>
@@ -2428,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2447,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <f t="shared" si="19"/>
@@ -2481,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2500,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <f t="shared" si="19"/>
@@ -2534,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2553,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <f t="shared" si="19"/>
@@ -2587,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2606,10 +2601,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <f t="shared" si="19"/>
@@ -2640,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2657,129 +2652,129 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
